--- a/output/OPPORTUNITY_18471807000178.xlsx
+++ b/output/OPPORTUNITY_18471807000178.xlsx
@@ -1340,10 +1340,10 @@
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.66721646</v>
+        <v>1.66553297</v>
       </c>
       <c r="C87">
-        <v>0.08277199693332871</v>
+        <v>0.0820885744003419</v>
       </c>
     </row>
   </sheetData>

--- a/output/OPPORTUNITY_18471807000178.xlsx
+++ b/output/OPPORTUNITY_18471807000178.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>OPPORTUNITY LONG BIASED FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41578</v>
       </c>
@@ -411,939 +405,684 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41608</v>
       </c>
       <c r="B3">
         <v>0.0146682600000001</v>
       </c>
-      <c r="C3">
-        <v>0.0146682600000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41639</v>
       </c>
       <c r="B4">
-        <v>0.006732079999999918</v>
-      </c>
-      <c r="C4">
         <v>-0.007821452895353409</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41670</v>
       </c>
       <c r="B5">
-        <v>-0.001871630000000013</v>
-      </c>
-      <c r="C5">
         <v>-0.008546176456401322</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41698</v>
       </c>
       <c r="B6">
-        <v>0.04972200999999998</v>
-      </c>
-      <c r="C6">
         <v>0.05169038527579373</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41729</v>
       </c>
       <c r="B7">
-        <v>0.07005492999999996</v>
-      </c>
-      <c r="C7">
         <v>0.01936981391863934</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41759</v>
       </c>
       <c r="B8">
-        <v>0.0924846800000001</v>
-      </c>
-      <c r="C8">
         <v>0.02096130709850574</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41790</v>
       </c>
       <c r="B9">
-        <v>0.1159178300000001</v>
-      </c>
-      <c r="C9">
         <v>0.0214494083340373</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41820</v>
       </c>
       <c r="B10">
-        <v>0.13137833</v>
-      </c>
-      <c r="C10">
         <v>0.01385451471816701</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41851</v>
       </c>
       <c r="B11">
-        <v>0.1487299799999999</v>
-      </c>
-      <c r="C11">
         <v>0.01533673532530888</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41882</v>
       </c>
       <c r="B12">
-        <v>0.21837456</v>
-      </c>
-      <c r="C12">
         <v>0.06062745920499091</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41912</v>
       </c>
       <c r="B13">
-        <v>0.1649977300000001</v>
-      </c>
-      <c r="C13">
         <v>-0.04380986910954532</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41943</v>
       </c>
       <c r="B14">
-        <v>0.1194951399999999</v>
-      </c>
-      <c r="C14">
         <v>-0.03905809327199306</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41973</v>
       </c>
       <c r="B15">
-        <v>0.16083577</v>
-      </c>
-      <c r="C15">
         <v>0.03692792270630152</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42004</v>
       </c>
       <c r="B16">
-        <v>0.1115491799999999</v>
-      </c>
-      <c r="C16">
         <v>-0.04245784914088246</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42035</v>
       </c>
       <c r="B17">
-        <v>0.08260829000000003</v>
-      </c>
-      <c r="C17">
         <v>-0.02603653578332887</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
       <c r="B18">
-        <v>0.0872921900000001</v>
-      </c>
-      <c r="C18">
         <v>0.004326495597036351</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42094</v>
       </c>
       <c r="B19">
-        <v>0.1046117499999999</v>
-      </c>
-      <c r="C19">
         <v>0.01592907606556038</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42124</v>
       </c>
       <c r="B20">
-        <v>0.09911913000000006</v>
-      </c>
-      <c r="C20">
         <v>-0.00497244393788121</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42155</v>
       </c>
       <c r="B21">
-        <v>0.1015341000000001</v>
-      </c>
-      <c r="C21">
         <v>0.002197186759910208</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42185</v>
       </c>
       <c r="B22">
-        <v>0.1085060200000001</v>
-      </c>
-      <c r="C22">
         <v>0.006329282044014839</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42216</v>
       </c>
       <c r="B23">
-        <v>0.13233698</v>
-      </c>
-      <c r="C23">
         <v>0.02149826845324654</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42247</v>
       </c>
       <c r="B24">
-        <v>0.1187769400000001</v>
-      </c>
-      <c r="C24">
         <v>-0.01197526905815616</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42277</v>
       </c>
       <c r="B25">
-        <v>0.12010217</v>
-      </c>
-      <c r="C25">
         <v>0.001184534604368848</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42308</v>
       </c>
       <c r="B26">
-        <v>0.12300986</v>
-      </c>
-      <c r="C26">
         <v>0.002595914978005931</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42338</v>
       </c>
       <c r="B27">
-        <v>0.1571980399999999</v>
-      </c>
-      <c r="C27">
         <v>0.0304433480218953</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42369</v>
       </c>
       <c r="B28">
-        <v>0.1586411999999999</v>
-      </c>
-      <c r="C28">
         <v>0.001247115835073531</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42400</v>
       </c>
       <c r="B29">
-        <v>0.1945330000000001</v>
-      </c>
-      <c r="C29">
         <v>0.03097749329127963</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42429</v>
       </c>
       <c r="B30">
-        <v>0.1962453200000001</v>
-      </c>
-      <c r="C30">
         <v>0.001433463956207248</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42460</v>
       </c>
       <c r="B31">
-        <v>0.2440886900000001</v>
-      </c>
-      <c r="C31">
         <v>0.03999461414820837</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42490</v>
       </c>
       <c r="B32">
-        <v>0.3048750099999999</v>
-      </c>
-      <c r="C32">
         <v>0.04886011784256294</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42521</v>
       </c>
       <c r="B33">
-        <v>0.2725044299999999</v>
-      </c>
-      <c r="C33">
         <v>-0.02480741814497622</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42551</v>
       </c>
       <c r="B34">
-        <v>0.3351740700000001</v>
-      </c>
-      <c r="C34">
         <v>0.0492490544806985</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42582</v>
       </c>
       <c r="B35">
-        <v>0.39647627</v>
-      </c>
-      <c r="C35">
         <v>0.04591326432814857</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42613</v>
       </c>
       <c r="B36">
-        <v>0.39771895</v>
-      </c>
-      <c r="C36">
         <v>0.0008898683255105233</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42643</v>
       </c>
       <c r="B37">
-        <v>0.3752422099999999</v>
-      </c>
-      <c r="C37">
         <v>-0.01608101542874563</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42674</v>
       </c>
       <c r="B38">
-        <v>0.4769346999999999</v>
-      </c>
-      <c r="C38">
         <v>0.07394514890580628</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42704</v>
       </c>
       <c r="B39">
-        <v>0.43225135</v>
-      </c>
-      <c r="C39">
         <v>-0.03025411346892992</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42735</v>
       </c>
       <c r="B40">
-        <v>0.44222793</v>
-      </c>
-      <c r="C40">
         <v>0.006965662835646924</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42766</v>
       </c>
       <c r="B41">
-        <v>0.5139214599999999</v>
-      </c>
-      <c r="C41">
         <v>0.04971026320368099</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42794</v>
       </c>
       <c r="B42">
-        <v>0.5586792199999999</v>
-      </c>
-      <c r="C42">
         <v>0.02956412283104837</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42825</v>
       </c>
       <c r="B43">
-        <v>0.5168343</v>
-      </c>
-      <c r="C43">
         <v>-0.02684639627132512</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42855</v>
       </c>
       <c r="B44">
-        <v>0.5149418299999999</v>
-      </c>
-      <c r="C44">
         <v>-0.001247644518587165</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42886</v>
       </c>
       <c r="B45">
-        <v>0.4898519400000001</v>
-      </c>
-      <c r="C45">
         <v>-0.01656161939894407</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42916</v>
       </c>
       <c r="B46">
-        <v>0.49631062</v>
-      </c>
-      <c r="C46">
         <v>0.004335115340387441</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42947</v>
       </c>
       <c r="B47">
-        <v>0.5336242899999999</v>
-      </c>
-      <c r="C47">
         <v>0.02493711499554818</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42978</v>
       </c>
       <c r="B48">
-        <v>0.5802524099999999</v>
-      </c>
-      <c r="C48">
         <v>0.03040387421093871</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43008</v>
       </c>
       <c r="B49">
-        <v>0.6026741</v>
-      </c>
-      <c r="C49">
         <v>0.0141886763520267</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43039</v>
       </c>
       <c r="B50">
-        <v>0.6099821000000001</v>
-      </c>
-      <c r="C50">
         <v>0.004559879017200119</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43069</v>
       </c>
       <c r="B51">
-        <v>0.59629635</v>
-      </c>
-      <c r="C51">
         <v>-0.008500560347844854</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43100</v>
       </c>
       <c r="B52">
-        <v>0.6253910300000001</v>
-      </c>
-      <c r="C52">
         <v>0.01822636504806896</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43131</v>
       </c>
       <c r="B53">
-        <v>0.7270669400000001</v>
-      </c>
-      <c r="C53">
         <v>0.06255473798203504</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43159</v>
       </c>
       <c r="B54">
-        <v>0.73387048</v>
-      </c>
-      <c r="C54">
         <v>0.00393936091440672</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43190</v>
       </c>
       <c r="B55">
-        <v>0.75229949</v>
-      </c>
-      <c r="C55">
         <v>0.01062882736200677</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43220</v>
       </c>
       <c r="B56">
-        <v>0.7419343599999999</v>
-      </c>
-      <c r="C56">
         <v>-0.005915158943520571</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43251</v>
       </c>
       <c r="B57">
-        <v>0.67356712</v>
-      </c>
-      <c r="C57">
         <v>-0.03924788532215417</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43281</v>
       </c>
       <c r="B58">
-        <v>0.6198785600000001</v>
-      </c>
-      <c r="C58">
         <v>-0.03208031477100237</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43312</v>
       </c>
       <c r="B59">
-        <v>0.6828200900000001</v>
-      </c>
-      <c r="C59">
         <v>0.03885570903537361</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43343</v>
       </c>
       <c r="B60">
-        <v>0.64638532</v>
-      </c>
-      <c r="C60">
         <v>-0.0216510191532121</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43373</v>
       </c>
       <c r="B61">
-        <v>0.6706984300000001</v>
-      </c>
-      <c r="C61">
         <v>0.01476756972055604</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43404</v>
       </c>
       <c r="B62">
-        <v>0.8028198799999999</v>
-      </c>
-      <c r="C62">
         <v>0.07908156710244829</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43434</v>
       </c>
       <c r="B63">
-        <v>0.85539422</v>
-      </c>
-      <c r="C63">
         <v>0.02916228103719387</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43465</v>
       </c>
       <c r="B64">
-        <v>0.8624286800000001</v>
-      </c>
-      <c r="C64">
         <v>0.003791355995492962</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43496</v>
       </c>
       <c r="B65">
-        <v>0.9990686</v>
-      </c>
-      <c r="C65">
         <v>0.0733665248325106</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43524</v>
       </c>
       <c r="B66">
-        <v>0.99007109</v>
-      </c>
-      <c r="C66">
         <v>-0.004500851046332244</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43555</v>
       </c>
       <c r="B67">
-        <v>0.99409781</v>
-      </c>
-      <c r="C67">
         <v>0.002023405103583453</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43585</v>
       </c>
       <c r="B68">
-        <v>1.03539755</v>
-      </c>
-      <c r="C68">
         <v>0.0207109900993272</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43616</v>
       </c>
       <c r="B69">
-        <v>1.09760662</v>
-      </c>
-      <c r="C69">
         <v>0.03056359677744536</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43646</v>
       </c>
       <c r="B70">
-        <v>1.16827028</v>
-      </c>
-      <c r="C70">
         <v>0.03368775600069385</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43677</v>
       </c>
       <c r="B71">
-        <v>1.26345582</v>
-      </c>
-      <c r="C71">
         <v>0.04389929653972824</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43708</v>
       </c>
       <c r="B72">
-        <v>1.32358761</v>
-      </c>
-      <c r="C72">
         <v>0.02656636346451879</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43738</v>
       </c>
       <c r="B73">
-        <v>1.35166027</v>
-      </c>
-      <c r="C73">
         <v>0.01208160169179062</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43769</v>
       </c>
       <c r="B74">
-        <v>1.42202708</v>
-      </c>
-      <c r="C74">
         <v>0.02992218344531539</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43799</v>
       </c>
       <c r="B75">
-        <v>1.45509526</v>
-      </c>
-      <c r="C75">
         <v>0.01365310085632898</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43830</v>
       </c>
       <c r="B76">
-        <v>1.61783972</v>
-      </c>
-      <c r="C76">
         <v>0.06628845024938057</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43861</v>
       </c>
       <c r="B77">
-        <v>1.65753608</v>
-      </c>
-      <c r="C77">
         <v>0.01516378550479014</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43890</v>
       </c>
       <c r="B78">
-        <v>1.49970314</v>
-      </c>
-      <c r="C78">
         <v>-0.05939070449045425</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43921</v>
       </c>
       <c r="B79">
-        <v>1.0486906</v>
-      </c>
-      <c r="C79">
         <v>-0.1804264405572574</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43951</v>
       </c>
       <c r="B80">
-        <v>1.26373259</v>
-      </c>
-      <c r="C80">
         <v>0.1049655765492359</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>1.36616884</v>
-      </c>
-      <c r="C81">
         <v>0.04525103824210963</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44012</v>
       </c>
       <c r="B82">
-        <v>1.52793531</v>
-      </c>
-      <c r="C82">
         <v>0.06836641040374802</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44043</v>
       </c>
       <c r="B83">
-        <v>1.69775211</v>
-      </c>
-      <c r="C83">
         <v>0.06717608608425985</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44074</v>
       </c>
       <c r="B84">
-        <v>1.61276075</v>
-      </c>
-      <c r="C84">
         <v>-0.03150451062014004</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44104</v>
       </c>
       <c r="B85">
-        <v>1.51241606</v>
-      </c>
-      <c r="C85">
         <v>-0.03840561750631011</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44135</v>
       </c>
       <c r="B86">
-        <v>1.46332235</v>
-      </c>
-      <c r="C86">
         <v>-0.01954043790024185</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.66553297</v>
-      </c>
-      <c r="C87">
-        <v>0.0820885744003419</v>
+        <v>0.06023809267187463</v>
       </c>
     </row>
   </sheetData>
